--- a/data/trans_dic/P41D_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.165070440821465</v>
+        <v>0.1650704408214649</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7626840207133679</v>
+        <v>0.7626840207133678</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.6994204705382956</v>
+        <v>0.600913914459287</v>
       </c>
     </row>
     <row r="7">
@@ -648,10 +648,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.8512943204210951</v>
+        <v>0.8438240577415042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7006796753940784</v>
+        <v>0.6816428491303367</v>
       </c>
     </row>
     <row r="10">
@@ -750,10 +750,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.8086190762437387</v>
+        <v>0.6138926279849559</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5770172502234109</v>
+        <v>0.52162177443591</v>
       </c>
     </row>
     <row r="16">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.3056370857670518</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
     </row>
     <row r="18">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="19">
@@ -969,7 +969,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>6283</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="8">
@@ -1034,10 +1034,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>3758</v>
+        <v>3725</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4719</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="12">
@@ -1170,10 +1170,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>3215</v>
+        <v>2441</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4066</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="20">
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="23">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="24">
